--- a/Design/DataTable/HeroInfo.xlsx
+++ b/Design/DataTable/HeroInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD624BC-18C8-46D5-A66C-311EBD34EF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5B653D-16DE-4948-87A3-203BE55D0E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>;공격 속도</t>
   </si>
   <si>
-    <t>;공격 범위</t>
-  </si>
-  <si>
     <t>;스플레쉬</t>
   </si>
   <si>
@@ -128,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackScale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReactionRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +157,14 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplashRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;스플레쉬 범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -584,15 +585,15 @@
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -604,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -622,60 +623,60 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>26</v>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -692,10 +693,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -713,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -736,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -757,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -780,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -801,13 +802,13 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -824,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -845,13 +846,13 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -868,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>30</v>
@@ -889,13 +890,13 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -912,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <f>ROUND(G7*1.1,0)</f>
@@ -936,13 +937,13 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -959,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <f t="shared" ref="G9:G12" si="1">ROUND(G8*1.1,0)</f>
@@ -983,13 +984,13 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1006,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -1030,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1053,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
@@ -1077,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1100,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
@@ -1124,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1147,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1165,16 +1166,16 @@
         <v>15</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>5</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1191,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1209,16 +1210,16 @@
         <v>15</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>5</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1235,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -1253,16 +1254,16 @@
         <v>15</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1279,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G16">
         <v>12</v>
@@ -1297,16 +1298,16 @@
         <v>15</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L16">
         <v>5</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1323,10 +1324,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -1341,16 +1342,16 @@
         <v>15</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <v>5</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1367,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:G22" si="2">ROUND(G17*1.1,0)</f>
@@ -1388,16 +1389,16 @@
         <v>15</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>5</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1414,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
@@ -1435,16 +1436,16 @@
         <v>15</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>5</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1461,10 +1462,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -1482,16 +1483,16 @@
         <v>15</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1508,10 +1509,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -1529,16 +1530,16 @@
         <v>15</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1555,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -1576,16 +1577,16 @@
         <v>15</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <v>5</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1598,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1609,10 +1610,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1620,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1641,10 +1642,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1652,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1689,34 +1690,34 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
